--- a/Documentation/Testing/Item Testing Tables.xlsx
+++ b/Documentation/Testing/Item Testing Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Rifle" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="72">
   <si>
     <t>Ammo</t>
   </si>
@@ -149,6 +149,96 @@
   </si>
   <si>
     <t>(Capacity - Ammo Pickup) &lt;= Total Ammo &lt; Capacity</t>
+  </si>
+  <si>
+    <t>Attack Function</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Attacking</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Don't Attack</t>
+  </si>
+  <si>
+    <t>In Range</t>
+  </si>
+  <si>
+    <t>! In Range</t>
+  </si>
+  <si>
+    <t>Battery Charge</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Charge &lt;= 0</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 &lt; Charge &lt; Max</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Charge &gt;= Max</t>
+  </si>
+  <si>
+    <t>Damage Function</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turned On </t>
+  </si>
+  <si>
+    <t>Turned Off</t>
+  </si>
+  <si>
+    <t>In Use</t>
+  </si>
+  <si>
+    <t>Light is On</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
+  <si>
+    <t>Decharging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage </t>
+  </si>
+  <si>
+    <t>Given</t>
   </si>
 </sst>
 </file>
@@ -235,7 +325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,8 +702,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="223">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1010,32 +1156,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="223">
+  <cellStyles count="279">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1147,6 +1293,34 @@
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1258,6 +1432,34 @@
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1590,7 +1792,7 @@
   <dimension ref="B2:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1993,19 +2195,19 @@
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="67" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2042,7 +2244,7 @@
       <c r="F22" s="29">
         <v>1</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="60">
         <v>2</v>
       </c>
       <c r="I22" s="46" t="s">
@@ -2094,7 +2296,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
-      <c r="G25" s="63"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="2"/>
@@ -2104,13 +2306,13 @@
       <c r="D26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="66" t="s">
+      <c r="F26" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="64" t="s">
         <v>29</v>
       </c>
       <c r="L26" s="1"/>
@@ -2134,10 +2336,10 @@
       </c>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="67" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2348,19 +2550,19 @@
       <c r="D40" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="67" t="s">
+      <c r="F40" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="65" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2389,10 +2591,18 @@
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
+      <c r="F42" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="67" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2409,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2424,7 +2634,7 @@
     <col min="13" max="13" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="36">
+    <row r="2" spans="2:13" ht="40" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
@@ -2813,13 +3023,13 @@
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="20" spans="2:13" ht="36">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+    </row>
+    <row r="20" spans="2:13" ht="40" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
@@ -2852,7 +3062,7 @@
       <c r="F22" s="29">
         <v>1</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="60">
         <v>2</v>
       </c>
       <c r="I22" s="46" t="s">
@@ -2904,7 +3114,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
-      <c r="G25" s="63"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="2"/>
@@ -2914,13 +3124,13 @@
       <c r="D26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="66" t="s">
+      <c r="F26" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="64" t="s">
         <v>29</v>
       </c>
       <c r="L26" s="1"/>
@@ -2944,10 +3154,10 @@
       </c>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-    </row>
-    <row r="30" spans="2:13" ht="36">
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+    </row>
+    <row r="30" spans="2:13" ht="40" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
@@ -3154,19 +3364,19 @@
       <c r="D40" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="67" t="s">
+      <c r="F40" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="65" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3195,21 +3405,22 @@
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="60" t="s">
+      <c r="H42" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="61" t="s">
+      <c r="I42" s="67" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3220,10 +3431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M42"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3233,12 +3444,15 @@
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
     <col min="13" max="13" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18">
-      <c r="B2" s="11"/>
+    <row r="2" spans="2:13" ht="40" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3268,435 +3482,104 @@
       <c r="F4" s="29">
         <v>1</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="60">
         <v>2</v>
       </c>
-      <c r="H4" s="30">
-        <v>3</v>
-      </c>
-      <c r="I4" s="30">
-        <v>4</v>
-      </c>
-      <c r="J4" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="I4" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16" thickBot="1">
       <c r="B5" s="2"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="17"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="D5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16" thickBot="1">
       <c r="B6" s="2"/>
       <c r="C6" s="33"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="24"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="19"/>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="2:13" ht="16" thickBot="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="23"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="2"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="2"/>
+      <c r="C8" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" ht="16" thickBot="1">
       <c r="C9" s="33"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="19"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="50"/>
+      <c r="E9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="2:13" ht="16" thickBot="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="19"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="44"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="2"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="40"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="C14" s="33"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="2:13" ht="16" thickBot="1">
-      <c r="C15" s="34"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="1"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="17"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" ht="16" thickBot="1">
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="55"/>
-    </row>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
-      <c r="C18" s="58" t="s">
+      <c r="C10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="20" spans="2:13" ht="36">
-      <c r="B20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" ht="16" thickBot="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" ht="16" thickBot="1">
-      <c r="B22" s="2"/>
-      <c r="C22" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29">
-        <v>1</v>
-      </c>
-      <c r="G22" s="62">
-        <v>2</v>
-      </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="2:13" ht="16" thickBot="1">
-      <c r="B23" s="2"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="50"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="2:13" ht="16" thickBot="1">
-      <c r="B24" s="2"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="50"/>
-    </row>
-    <row r="25" spans="2:13" ht="16" thickBot="1">
-      <c r="B25" s="2"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="63"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="2"/>
-      <c r="C26" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="2:13" ht="16" thickBot="1">
-      <c r="C27" s="33"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" spans="2:13" ht="16" thickBot="1">
-      <c r="C28" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-    </row>
-    <row r="30" spans="2:13" ht="36">
-      <c r="B30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="2:13" ht="16" thickBot="1">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="2:13" ht="16" thickBot="1">
-      <c r="B32" s="2"/>
-      <c r="C32" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29">
-        <v>1</v>
-      </c>
-      <c r="G32" s="29">
-        <v>2</v>
-      </c>
-      <c r="H32" s="29">
-        <v>3</v>
-      </c>
-      <c r="I32" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="2"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="17"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="2"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="24"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="50"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="2"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="24"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="50"/>
-    </row>
-    <row r="36" spans="2:13" ht="16" thickBot="1">
-      <c r="C36" s="33"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="24"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49"/>
-    </row>
-    <row r="37" spans="2:13" ht="16" thickBot="1">
-      <c r="B37" s="2"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="38"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="1"/>
-      <c r="C38" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="17"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="2:13" ht="16" thickBot="1">
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="55"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="C40" s="56"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="67"/>
-    </row>
-    <row r="41" spans="2:13" ht="16" thickBot="1">
-      <c r="C41" s="56"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="2:13" ht="16" thickBot="1">
-      <c r="C42" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3707,13 +3590,155 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="40" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" ht="16" thickBot="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" ht="16" thickBot="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="60">
+        <v>2</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16" thickBot="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16" thickBot="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16" thickBot="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="2"/>
+      <c r="C8" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" ht="16" thickBot="1">
+      <c r="C9" s="33"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="16" thickBot="1">
+      <c r="C10" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3724,13 +3749,584 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="40" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" thickBot="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" ht="16" thickBot="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29">
+        <v>2</v>
+      </c>
+      <c r="H4" s="30">
+        <v>3</v>
+      </c>
+      <c r="I4" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="2"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="2"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="16" thickBot="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="2"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="16" thickBot="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="16" thickBot="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="2:14" ht="16" thickBot="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="2"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" ht="16" thickBot="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" ht="16" thickBot="1">
+      <c r="C14" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="40" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" ht="16" thickBot="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" ht="16" thickBot="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="60">
+        <v>2</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="16" thickBot="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="16" thickBot="1">
+      <c r="B21" s="2"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="16" thickBot="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="61"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="2"/>
+      <c r="C23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="16" thickBot="1">
+      <c r="C24" s="33"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" spans="2:14" ht="16" thickBot="1">
+      <c r="C25" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="27" spans="2:14" ht="40" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="16" thickBot="1">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" ht="16" thickBot="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="29">
+        <v>2</v>
+      </c>
+      <c r="H29" s="29">
+        <v>3</v>
+      </c>
+      <c r="I29" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="2"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="17"/>
+      <c r="M30" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="2"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="24"/>
+      <c r="M31" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="2"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="24"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="50"/>
+    </row>
+    <row r="33" spans="2:14" ht="16" thickBot="1">
+      <c r="C33" s="33"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="24"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="49"/>
+    </row>
+    <row r="34" spans="2:14" ht="16" thickBot="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="1"/>
+      <c r="C35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="17"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="16" thickBot="1">
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="55"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="C37" s="56"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="2:14" ht="16" thickBot="1">
+      <c r="C38" s="56"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="2:14" ht="16" thickBot="1">
+      <c r="C39" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="67"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/Testing/Item Testing Tables.xlsx
+++ b/Documentation/Testing/Item Testing Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Rifle" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="279">
+  <cellStyleXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1181,7 +1185,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="279">
+  <cellStyles count="283">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1321,6 +1325,8 @@
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1460,6 +1466,8 @@
     <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3752,7 +3760,7 @@
   <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documentation/Testing/Item Testing Tables.xlsx
+++ b/Documentation/Testing/Item Testing Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rifle" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="72">
   <si>
     <t>Ammo</t>
   </si>
@@ -702,8 +702,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="283">
+  <cellStyleXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1185,7 +1223,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="283">
+  <cellStyles count="321">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1327,6 +1365,25 @@
     <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1468,6 +1525,25 @@
     <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1799,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2627,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3162,8 +3238,12 @@
       </c>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
+      <c r="F28" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="67" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="2:13" ht="40" customHeight="1">
       <c r="B30" s="11" t="s">
@@ -3442,7 +3522,7 @@
   <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C4" sqref="C4:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3582,8 +3662,12 @@
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="F10" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3600,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3741,8 +3825,12 @@
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="F10" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3757,10 +3845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N39"/>
+  <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3770,11 +3858,11 @@
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="30.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="40" customHeight="1">
+    <row r="2" spans="2:12" ht="40" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
@@ -3783,19 +3871,19 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" ht="16" thickBot="1">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" ht="16" thickBot="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" ht="16" thickBot="1">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" ht="16" thickBot="1">
       <c r="B4" s="2"/>
       <c r="C4" s="32" t="s">
         <v>5</v>
@@ -3817,7 +3905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:12">
       <c r="B5" s="2"/>
       <c r="C5" s="33"/>
       <c r="D5" s="13" t="s">
@@ -3838,14 +3926,14 @@
       <c r="I5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="K5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:12">
       <c r="B6" s="2"/>
       <c r="C6" s="33"/>
       <c r="D6" s="18"/>
@@ -3864,14 +3952,14 @@
       <c r="I6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="K6" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="16" thickBot="1">
+    <row r="7" spans="2:12" ht="16" thickBot="1">
       <c r="B7" s="2"/>
       <c r="C7" s="33"/>
       <c r="D7" s="25"/>
@@ -3890,14 +3978,14 @@
       <c r="I7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="K7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="L7" s="49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:12">
       <c r="B8" s="2"/>
       <c r="C8" s="33"/>
       <c r="D8" s="13" t="s">
@@ -3918,14 +4006,14 @@
       <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="K8" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="16" thickBot="1">
+    <row r="9" spans="2:12" ht="16" thickBot="1">
       <c r="B9" s="2"/>
       <c r="C9" s="33"/>
       <c r="D9" s="18"/>
@@ -3944,14 +4032,14 @@
       <c r="I9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="K9" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="L9" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="16" thickBot="1">
+    <row r="10" spans="2:12" ht="16" thickBot="1">
       <c r="B10" s="2"/>
       <c r="C10" s="35"/>
       <c r="D10" s="36"/>
@@ -3961,7 +4049,7 @@
       <c r="H10" s="37"/>
       <c r="I10" s="38"/>
     </row>
-    <row r="11" spans="2:14" ht="16" thickBot="1">
+    <row r="11" spans="2:12" ht="16" thickBot="1">
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
         <v>15</v>
@@ -3984,9 +4072,9 @@
       <c r="I11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:14">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="2"/>
       <c r="C12" s="33"/>
       <c r="D12" s="13" t="s">
@@ -4007,9 +4095,9 @@
       <c r="I12" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" ht="16" thickBot="1">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="16" thickBot="1">
       <c r="B13" s="2"/>
       <c r="C13" s="33"/>
       <c r="D13" s="18"/>
@@ -4028,9 +4116,9 @@
       <c r="I13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" ht="16" thickBot="1">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" ht="16" thickBot="1">
       <c r="C14" s="58" t="s">
         <v>27</v>
       </c>
@@ -4049,7 +4137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="40" customHeight="1">
+    <row r="17" spans="2:12" ht="40" customHeight="1">
       <c r="B17" s="11" t="s">
         <v>42</v>
       </c>
@@ -4058,19 +4146,19 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" ht="16" thickBot="1">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" ht="16" thickBot="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" ht="16" thickBot="1">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" ht="16" thickBot="1">
       <c r="B19" s="2"/>
       <c r="C19" s="32" t="s">
         <v>5</v>
@@ -4091,11 +4179,8 @@
       <c r="J19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="16" thickBot="1">
+    </row>
+    <row r="20" spans="2:12" ht="16" thickBot="1">
       <c r="B20" s="2"/>
       <c r="C20" s="33"/>
       <c r="D20" s="13" t="s">
@@ -4116,11 +4201,8 @@
       <c r="J20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="16" thickBot="1">
+    </row>
+    <row r="21" spans="2:12" ht="16" thickBot="1">
       <c r="B21" s="2"/>
       <c r="C21" s="33"/>
       <c r="D21" s="18"/>
@@ -4134,7 +4216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="16" thickBot="1">
+    <row r="22" spans="2:12" ht="16" thickBot="1">
       <c r="B22" s="2"/>
       <c r="C22" s="35"/>
       <c r="D22" s="36"/>
@@ -4142,7 +4224,7 @@
       <c r="F22" s="36"/>
       <c r="G22" s="61"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:12">
       <c r="B23" s="2"/>
       <c r="C23" s="32" t="s">
         <v>15</v>
@@ -4155,16 +4237,16 @@
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="64"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="16" thickBot="1">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="2:12" ht="16" thickBot="1">
       <c r="C24" s="33"/>
       <c r="D24" s="18"/>
       <c r="E24" s="26"/>
       <c r="F24" s="21"/>
       <c r="G24" s="49"/>
     </row>
-    <row r="25" spans="2:14" ht="16" thickBot="1">
+    <row r="25" spans="2:12" ht="16" thickBot="1">
       <c r="C25" s="58" t="s">
         <v>27</v>
       </c>
@@ -4173,7 +4255,7 @@
       <c r="F25" s="66"/>
       <c r="G25" s="67"/>
     </row>
-    <row r="27" spans="2:14" ht="40" customHeight="1">
+    <row r="27" spans="2:12" ht="40" customHeight="1">
       <c r="B27" s="11" t="s">
         <v>58</v>
       </c>
@@ -4182,19 +4264,19 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" ht="16" thickBot="1">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="2:12" ht="16" thickBot="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" ht="16" thickBot="1">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" ht="16" thickBot="1">
       <c r="B29" s="2"/>
       <c r="C29" s="32" t="s">
         <v>5</v>
@@ -4216,7 +4298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:12">
       <c r="B30" s="2"/>
       <c r="C30" s="33"/>
       <c r="D30" s="13"/>
@@ -4225,14 +4307,14 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="17"/>
-      <c r="M30" s="46" t="s">
+      <c r="K30" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="N30" s="17" t="s">
+      <c r="L30" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:12">
       <c r="B31" s="2"/>
       <c r="C31" s="33"/>
       <c r="D31" s="18"/>
@@ -4241,14 +4323,14 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="M31" s="47" t="s">
+      <c r="K31" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="50" t="s">
+      <c r="L31" s="50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:12">
       <c r="B32" s="2"/>
       <c r="C32" s="33"/>
       <c r="D32" s="18"/>
@@ -4257,10 +4339,10 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="24"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="50"/>
-    </row>
-    <row r="33" spans="2:14" ht="16" thickBot="1">
+      <c r="K32" s="47"/>
+      <c r="L32" s="50"/>
+    </row>
+    <row r="33" spans="2:12" ht="16" thickBot="1">
       <c r="C33" s="33"/>
       <c r="D33" s="18"/>
       <c r="E33" s="9"/>
@@ -4268,10 +4350,10 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="24"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="49"/>
-    </row>
-    <row r="34" spans="2:14" ht="16" thickBot="1">
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
+    </row>
+    <row r="34" spans="2:12" ht="16" thickBot="1">
       <c r="B34" s="2"/>
       <c r="C34" s="35"/>
       <c r="D34" s="36"/>
@@ -4281,7 +4363,7 @@
       <c r="H34" s="36"/>
       <c r="I34" s="38"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:12">
       <c r="B35" s="1"/>
       <c r="C35" s="32" t="s">
         <v>15</v>
@@ -4292,9 +4374,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="17"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" ht="16" thickBot="1">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="2:12" ht="16" thickBot="1">
       <c r="C36" s="56"/>
       <c r="D36" s="57"/>
       <c r="E36" s="10"/>
@@ -4303,7 +4385,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="55"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:12">
       <c r="C37" s="56"/>
       <c r="D37" s="41"/>
       <c r="E37" s="62"/>
@@ -4312,7 +4394,7 @@
       <c r="H37" s="63"/>
       <c r="I37" s="65"/>
     </row>
-    <row r="38" spans="2:14" ht="16" thickBot="1">
+    <row r="38" spans="2:12" ht="16" thickBot="1">
       <c r="C38" s="56"/>
       <c r="D38" s="43"/>
       <c r="E38" s="26"/>
@@ -4321,7 +4403,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="2:14" ht="16" thickBot="1">
+    <row r="39" spans="2:12" ht="16" thickBot="1">
       <c r="C39" s="58" t="s">
         <v>27</v>
       </c>
